--- a/FitnessData/dynamic12/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic12/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>186.4</v>
+        <v>203.17</v>
       </c>
       <c r="B2" t="n">
-        <v>221.54</v>
+        <v>187.16</v>
       </c>
       <c r="C2" t="n">
-        <v>212.44</v>
+        <v>183.29</v>
       </c>
       <c r="D2" t="n">
-        <v>221.14</v>
+        <v>190.1</v>
       </c>
       <c r="E2" t="n">
-        <v>194.25</v>
+        <v>169.81</v>
       </c>
       <c r="F2" t="n">
-        <v>193.83</v>
+        <v>178.05</v>
       </c>
       <c r="G2" t="n">
-        <v>201.1</v>
+        <v>179.9</v>
       </c>
       <c r="H2" t="n">
-        <v>205.02</v>
+        <v>183.95</v>
       </c>
       <c r="I2" t="n">
-        <v>203.43</v>
+        <v>181.8</v>
       </c>
       <c r="J2" t="n">
-        <v>197.28</v>
+        <v>193.27</v>
       </c>
       <c r="K2" t="n">
-        <v>189.68</v>
+        <v>183.13</v>
       </c>
       <c r="L2" t="n">
-        <v>207.32</v>
+        <v>188</v>
       </c>
       <c r="M2" t="n">
-        <v>196.32</v>
+        <v>193.39</v>
       </c>
       <c r="N2" t="n">
-        <v>185.91</v>
+        <v>194.11</v>
       </c>
       <c r="O2" t="n">
-        <v>176.38</v>
+        <v>183.99</v>
       </c>
       <c r="P2" t="n">
-        <v>200.02</v>
+        <v>195.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>197.46</v>
+        <v>181.96</v>
       </c>
       <c r="R2" t="n">
-        <v>200.57</v>
+        <v>183.56</v>
       </c>
       <c r="S2" t="n">
-        <v>191.33</v>
+        <v>197.38</v>
       </c>
       <c r="T2" t="n">
-        <v>213.5</v>
+        <v>199.5</v>
       </c>
       <c r="U2" t="n">
-        <v>176.38</v>
+        <v>169.81</v>
       </c>
       <c r="V2" t="n">
-        <v>199.746</v>
+        <v>187.54</v>
       </c>
       <c r="W2" t="n">
-        <v>11.60819828261135</v>
+        <v>8.165749393527497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>410.38</v>
+        <v>425.74</v>
       </c>
       <c r="B3" t="n">
-        <v>413.64</v>
+        <v>431.24</v>
       </c>
       <c r="C3" t="n">
-        <v>450.02</v>
+        <v>430.04</v>
       </c>
       <c r="D3" t="n">
-        <v>420.12</v>
+        <v>421.68</v>
       </c>
       <c r="E3" t="n">
-        <v>451.5</v>
+        <v>435.22</v>
       </c>
       <c r="F3" t="n">
-        <v>473.78</v>
+        <v>438.78</v>
       </c>
       <c r="G3" t="n">
-        <v>426.14</v>
+        <v>417.04</v>
       </c>
       <c r="H3" t="n">
-        <v>455.22</v>
+        <v>416.36</v>
       </c>
       <c r="I3" t="n">
-        <v>465.5</v>
+        <v>418.82</v>
       </c>
       <c r="J3" t="n">
-        <v>408.34</v>
+        <v>417.1</v>
       </c>
       <c r="K3" t="n">
-        <v>440.66</v>
+        <v>429.38</v>
       </c>
       <c r="L3" t="n">
-        <v>482.82</v>
+        <v>423.74</v>
       </c>
       <c r="M3" t="n">
-        <v>405.34</v>
+        <v>413.4</v>
       </c>
       <c r="N3" t="n">
-        <v>442.34</v>
+        <v>426.9</v>
       </c>
       <c r="O3" t="n">
-        <v>429.7</v>
+        <v>399.12</v>
       </c>
       <c r="P3" t="n">
-        <v>436.82</v>
+        <v>415.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>440.56</v>
+        <v>437.06</v>
       </c>
       <c r="R3" t="n">
-        <v>448.9</v>
+        <v>453.92</v>
       </c>
       <c r="S3" t="n">
-        <v>445.9</v>
+        <v>386.66</v>
       </c>
       <c r="T3" t="n">
-        <v>425.84</v>
+        <v>488</v>
       </c>
       <c r="U3" t="n">
-        <v>405.34</v>
+        <v>386.66</v>
       </c>
       <c r="V3" t="n">
-        <v>438.6759999999999</v>
+        <v>426.274</v>
       </c>
       <c r="W3" t="n">
-        <v>21.58735263259974</v>
+        <v>20.41717347312254</v>
       </c>
     </row>
   </sheetData>
